--- a/va_facility_data_2025-02-20/Hot Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hot%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hot Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hot%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R454b503001a24abc93b13b8059bd2210"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2a619f3c63c54d0fa5df1594ad5db4ef"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raa12128e5cc14816b38c0ccdddfaf6a5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rea5d42e44cfc4b179d463c0c319ac3ef"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R40edec92eda046cc9ae2d45d1f634f0b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9b50af480498405a9e8d1f89349ed38b"/>
   </x:sheets>
 </x:workbook>
 </file>
